--- a/系统文件/锅炉设计参数.xlsx
+++ b/系统文件/锅炉设计参数.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主要设计参数" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="煤种" sheetId="7" r:id="rId6"/>
     <sheet name="一次风与二次风" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,6 +783,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -830,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,7 +868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,14 +1083,14 @@
       <selection activeCell="D15" sqref="D15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1609,22 +1612,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B35" sqref="B35:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>89.37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>93.94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1996,7 +1999,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2068,7 +2071,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2353,21 +2356,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2610,7 +2613,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3215,18 +3218,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <f>主要设计参数!B15</f>
         <v>给水温度</v>
@@ -4186,14 +4189,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>87</v>
@@ -4219,7 +4222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -4229,7 +4232,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>95</v>
@@ -4297,7 +4300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -4307,7 +4310,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
@@ -4359,7 +4362,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -4429,15 +4432,15 @@
       <selection activeCell="A33" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -4539,7 +4542,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -4649,19 +4652,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="8" customWidth="1"/>
     <col min="3" max="3" width="18" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>156</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>154</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>152</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>147</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0.76754949858575472</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>146</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>0.23245050141424531</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>145</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>144</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>143</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>141</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>140</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>138</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>135</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>27.091000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>134</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>28.690999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>30.390999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>31.991</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>131</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>35.360999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>36.960999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>129</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>38.661000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>128</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>40.261000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>43.631</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>45.231000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>125</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>46.930999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>124</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>48.530999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>26.509</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>122</v>
       </c>
@@ -4947,31 +4950,31 @@
         <v>5.1109999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f>6947/0.99/0.947/(1-3.54%)/29271</f>
         <v>0.26243835566610185</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f>6947/0.995/0.947/(1-3.54%)/29271</f>
         <v>0.26111956995923707</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f>6947/0.99/0.947/29271</f>
         <v>0.25314803787552187</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f>6947/0.995/0.947/29271</f>
         <v>0.25187593718268009</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f>251.7*(1-3.54%)</f>
         <v>242.78981999999999</v>
@@ -4981,7 +4984,7 @@
         <v>241.57587089999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>241.72300000000001</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>241.72300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>1-0.0354</f>
         <v>0.96460000000000001</v>
@@ -4998,7 +5001,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A35/A36/0.995</f>
         <v>251.85329508833826</v>
@@ -5008,7 +5011,7 @@
         <v>251.71613037592422</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f>1-0.2264</f>
         <v>0.77360000000000007</v>

--- a/系统文件/锅炉设计参数.xlsx
+++ b/系统文件/锅炉设计参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主要设计参数" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="煤种" sheetId="7" r:id="rId6"/>
     <sheet name="一次风与二次风" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -570,8 +570,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +664,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -712,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -771,6 +795,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -791,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1077,20 +1142,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:J15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="21"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="21"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1103,13 +1172,13 @@
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1122,7 +1191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1135,13 +1204,13 @@
       <c r="D2" s="1">
         <v>2710</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="21">
         <v>2630</v>
       </c>
       <c r="F2" s="1">
         <v>2533</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="26">
         <v>1866</v>
       </c>
       <c r="H2" s="3">
@@ -1153,8 +1222,16 @@
       <c r="J2" s="3">
         <v>738</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <f>E2/3.6</f>
+        <v>730.55555555555554</v>
+      </c>
+      <c r="L2" s="1">
+        <f>F2/3.6</f>
+        <v>703.61111111111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1167,13 +1244,13 @@
       <c r="D3" s="1">
         <v>33.03</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="21">
         <v>32.19</v>
       </c>
       <c r="F3" s="1">
         <v>31.14</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="26">
         <v>23.12</v>
       </c>
       <c r="H3" s="3">
@@ -1186,7 +1263,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1199,13 +1276,13 @@
       <c r="D4" s="1">
         <v>605</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="21">
         <v>605</v>
       </c>
       <c r="F4" s="1">
         <v>605</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="22">
         <v>605</v>
       </c>
       <c r="H4" s="3">
@@ -1218,7 +1295,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1231,13 +1308,13 @@
       <c r="D5" s="1">
         <v>2517</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="21">
         <v>2426</v>
       </c>
       <c r="F5" s="1">
         <v>2318</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="22">
         <v>1683</v>
       </c>
       <c r="H5" s="3">
@@ -1249,8 +1326,16 @@
       <c r="J5" s="3">
         <v>690</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f t="shared" ref="K3:L16" si="0">E5/3.6</f>
+        <v>673.88888888888891</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>643.88888888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1263,13 +1348,13 @@
       <c r="D6" s="1">
         <v>11.39</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="21">
         <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>10.53</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="22">
         <v>7.71</v>
       </c>
       <c r="H6" s="3">
@@ -1282,7 +1367,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1295,13 +1380,13 @@
       <c r="D7" s="1">
         <v>429</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="21">
         <v>428</v>
       </c>
       <c r="F7" s="1">
         <v>427</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="22">
         <v>428</v>
       </c>
       <c r="H7" s="3">
@@ -1314,7 +1399,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1327,13 +1412,13 @@
       <c r="D8" s="1">
         <v>11.17</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="21">
         <v>10.78</v>
       </c>
       <c r="F8" s="1">
         <v>10.32</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="22">
         <v>7.55</v>
       </c>
       <c r="H8" s="3">
@@ -1346,7 +1431,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1359,13 +1444,13 @@
       <c r="D9" s="1">
         <v>613</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="21">
         <v>613</v>
       </c>
       <c r="F9" s="1">
         <v>613</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="22">
         <v>613</v>
       </c>
       <c r="H9" s="3">
@@ -1378,7 +1463,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1391,13 +1476,13 @@
       <c r="D10" s="1">
         <v>2161</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="21">
         <v>2088</v>
       </c>
       <c r="F10" s="1">
         <v>2002</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="22">
         <v>1481</v>
       </c>
       <c r="H10" s="3">
@@ -1409,8 +1494,16 @@
       <c r="J10" s="3">
         <v>625</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>556.11111111111109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1423,13 +1516,13 @@
       <c r="D11" s="1">
         <v>3.56</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="21">
         <v>3.44</v>
       </c>
       <c r="F11" s="1">
         <v>3.29</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="22">
         <v>2.4300000000000002</v>
       </c>
       <c r="H11" s="3">
@@ -1442,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1455,13 +1548,13 @@
       <c r="D12" s="1">
         <v>432</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="21">
         <v>433</v>
       </c>
       <c r="F12" s="1">
         <v>433</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="22">
         <v>437</v>
       </c>
       <c r="H12" s="3">
@@ -1474,7 +1567,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1487,13 +1580,13 @@
       <c r="D13" s="1">
         <v>3.3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="21">
         <v>3.19</v>
       </c>
       <c r="F13" s="1">
         <v>3.05</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="22">
         <v>2.2400000000000002</v>
       </c>
       <c r="H13" s="3">
@@ -1506,7 +1599,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1519,13 +1612,13 @@
       <c r="D14" s="1">
         <v>613</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="21">
         <v>613</v>
       </c>
       <c r="F14" s="1">
         <v>613</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="22">
         <v>613</v>
       </c>
       <c r="H14" s="3">
@@ -1538,7 +1631,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1551,13 +1644,13 @@
       <c r="D15" s="4">
         <v>314</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="21">
         <v>314</v>
       </c>
       <c r="F15" s="4">
         <v>314</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="22">
         <v>302</v>
       </c>
       <c r="H15" s="5">
@@ -1570,7 +1663,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1583,13 +1676,13 @@
       <c r="D16" s="1">
         <v>37.03</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="21">
         <v>35.950000000000003</v>
       </c>
       <c r="F16" s="1">
         <v>34.64</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="22">
         <v>25.02</v>
       </c>
       <c r="H16" s="3">
@@ -1605,6 +1698,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1612,22 +1706,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1741,7 @@
       <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -1659,7 +1754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1678,7 +1773,7 @@
       <c r="F2" s="14">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="25">
         <v>4.16</v>
       </c>
       <c r="H2" s="14">
@@ -1691,7 +1786,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1710,7 +1805,7 @@
       <c r="F3" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="25">
         <v>0.13</v>
       </c>
       <c r="H3" s="14">
@@ -1723,7 +1818,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1742,7 +1837,7 @@
       <c r="F4" s="14">
         <v>0.24</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="25">
         <v>0.23</v>
       </c>
       <c r="H4" s="14">
@@ -1755,7 +1850,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1774,7 +1869,7 @@
       <c r="F5" s="14">
         <v>0.06</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="25">
         <v>0.06</v>
       </c>
       <c r="H5" s="14">
@@ -1787,7 +1882,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1806,7 +1901,7 @@
       <c r="F6" s="14">
         <v>0.16</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="25">
         <v>0.3</v>
       </c>
       <c r="H6" s="14">
@@ -1819,7 +1914,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1838,7 +1933,7 @@
       <c r="F7" s="14">
         <v>0.19</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="25">
         <v>0.25</v>
       </c>
       <c r="H7" s="14">
@@ -1851,7 +1946,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1870,7 +1965,7 @@
       <c r="F8" s="14">
         <v>0.25</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="25">
         <v>0.25</v>
       </c>
       <c r="H8" s="14">
@@ -1883,7 +1978,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1902,7 +1997,7 @@
       <c r="F9" s="14">
         <v>0.11</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="25">
         <v>0.11</v>
       </c>
       <c r="H9" s="14">
@@ -1915,7 +2010,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1934,7 +2029,7 @@
       <c r="F10" s="14">
         <v>90.1</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="25">
         <v>89.92</v>
       </c>
       <c r="H10" s="14">
@@ -1947,7 +2042,7 @@
         <v>89.37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1966,7 +2061,7 @@
       <c r="F11" s="15">
         <v>94.7</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="25">
         <v>94.51</v>
       </c>
       <c r="H11" s="14">
@@ -1979,7 +2074,7 @@
         <v>93.94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1994,12 +2089,12 @@
         <v>94.65</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2018,7 +2113,7 @@
       <c r="F13" s="14">
         <v>321.89999999999998</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="25">
         <v>244.9</v>
       </c>
       <c r="H13" s="14">
@@ -2031,7 +2126,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2046,12 +2141,12 @@
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2066,12 +2161,12 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2086,12 +2181,12 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2110,7 +2205,7 @@
       <c r="F17" s="14">
         <v>8436</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="25">
         <v>6404</v>
       </c>
       <c r="H17" s="14">
@@ -2123,7 +2218,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2140,7 +2235,7 @@
       <c r="F18" s="14">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="25">
         <v>1.21</v>
       </c>
       <c r="H18" s="14">
@@ -2153,7 +2248,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2172,7 +2267,7 @@
       <c r="F19" s="14">
         <v>5</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="25">
         <v>4</v>
       </c>
       <c r="H19" s="14">
@@ -2185,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2204,7 +2299,7 @@
       <c r="F20" s="14">
         <v>121</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="25">
         <v>115</v>
       </c>
       <c r="H20" s="14">
@@ -2217,7 +2312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2236,7 +2331,7 @@
       <c r="F21" s="15">
         <v>117</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="25">
         <v>111</v>
       </c>
       <c r="H21" s="14">
@@ -2249,7 +2344,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2268,7 +2363,7 @@
       <c r="F22" s="14">
         <v>314</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="25">
         <v>302</v>
       </c>
       <c r="H22" s="14">
@@ -2281,7 +2376,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2300,7 +2395,7 @@
       <c r="F23" s="14">
         <v>50.6</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="25">
         <v>37.4</v>
       </c>
       <c r="H23" s="14">
@@ -2313,7 +2408,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2332,7 +2427,7 @@
       <c r="F24" s="14">
         <v>50.7</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="25">
         <v>37.299999999999997</v>
       </c>
       <c r="H24" s="14">
@@ -2356,21 +2451,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2386,13 +2483,13 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="27" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2405,7 +2502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2419,13 +2516,13 @@
       <c r="E2" s="3">
         <v>480</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="28">
         <v>478</v>
       </c>
       <c r="G2" s="3">
         <v>476</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="22">
         <v>454</v>
       </c>
       <c r="I2" s="3">
@@ -2438,7 +2535,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2454,13 +2551,13 @@
       <c r="E3" s="3">
         <v>475</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="29">
         <v>473</v>
       </c>
       <c r="G3" s="3">
         <v>470</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="26">
         <v>447</v>
       </c>
       <c r="I3" s="3">
@@ -2473,7 +2570,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2489,13 +2586,13 @@
       <c r="E4" s="3">
         <v>479</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="28">
         <v>477</v>
       </c>
       <c r="G4" s="3">
         <v>475</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="22">
         <v>454</v>
       </c>
       <c r="I4" s="3">
@@ -2508,7 +2605,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2524,13 +2621,13 @@
       <c r="E5" s="3">
         <v>479</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="28">
         <v>477</v>
       </c>
       <c r="G5" s="3">
         <v>475</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="22">
         <v>454</v>
       </c>
       <c r="I5" s="3">
@@ -2543,7 +2640,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2559,13 +2656,13 @@
       <c r="E6" s="3">
         <v>533</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="28">
         <v>533</v>
       </c>
       <c r="G6" s="3">
         <v>532</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="26">
         <v>527</v>
       </c>
       <c r="I6" s="3">
@@ -2578,7 +2675,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2594,13 +2691,13 @@
       <c r="E7" s="3">
         <v>519</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="28">
         <v>518</v>
       </c>
       <c r="G7" s="3">
         <v>517</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="22">
         <v>517</v>
       </c>
       <c r="I7" s="3">
@@ -2613,7 +2710,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2629,13 +2726,13 @@
       <c r="E8" s="3">
         <v>575</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="28">
         <v>575</v>
       </c>
       <c r="G8" s="3">
         <v>575</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="22">
         <v>578</v>
       </c>
       <c r="I8" s="3">
@@ -2648,7 +2745,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2664,13 +2761,13 @@
       <c r="E9" s="3">
         <v>523</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="28">
         <v>523</v>
       </c>
       <c r="G9" s="3">
         <v>523</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="22">
         <v>526</v>
       </c>
       <c r="I9" s="3">
@@ -2683,7 +2780,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2699,13 +2796,13 @@
       <c r="E10" s="3">
         <v>575</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="28">
         <v>576</v>
       </c>
       <c r="G10" s="3">
         <v>576</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="22">
         <v>581</v>
       </c>
       <c r="I10" s="3">
@@ -2718,7 +2815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2734,13 +2831,13 @@
       <c r="E11" s="3">
         <v>525</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="28">
         <v>524</v>
       </c>
       <c r="G11" s="3">
         <v>523</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="22">
         <v>516</v>
       </c>
       <c r="I11" s="3">
@@ -2753,7 +2850,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2769,13 +2866,13 @@
       <c r="E12" s="3">
         <v>605</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="28">
         <v>605</v>
       </c>
       <c r="G12" s="3">
         <v>605</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="22">
         <v>605</v>
       </c>
       <c r="I12" s="3">
@@ -2788,7 +2885,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2804,13 +2901,13 @@
       <c r="E13" s="3">
         <v>574</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="28">
         <v>574</v>
       </c>
       <c r="G13" s="3">
         <v>574</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="26">
         <v>577</v>
       </c>
       <c r="I13" s="3">
@@ -2823,7 +2920,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2839,13 +2936,13 @@
       <c r="E14" s="3">
         <v>613</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="28">
         <v>613</v>
       </c>
       <c r="G14" s="3">
         <v>613</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="26">
         <v>613</v>
       </c>
       <c r="I14" s="3">
@@ -2858,7 +2955,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2874,13 +2971,13 @@
       <c r="E15" s="3">
         <v>575</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="28">
         <v>576</v>
       </c>
       <c r="G15" s="3">
         <v>576</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="26">
         <v>581</v>
       </c>
       <c r="I15" s="3">
@@ -2893,7 +2990,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2909,13 +3006,13 @@
       <c r="E16" s="3">
         <v>613</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="28">
         <v>613</v>
       </c>
       <c r="G16" s="3">
         <v>613</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="22">
         <v>613</v>
       </c>
       <c r="I16" s="3">
@@ -2928,7 +3025,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2944,13 +3041,13 @@
       <c r="E17" s="3">
         <v>432</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="28">
         <v>433</v>
       </c>
       <c r="G17" s="3">
         <v>433</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="22">
         <v>437</v>
       </c>
       <c r="I17" s="3">
@@ -2963,7 +3060,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2979,13 +3076,13 @@
       <c r="E18" s="3">
         <v>523</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="28">
         <v>523</v>
       </c>
       <c r="G18" s="3">
         <v>523</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="26">
         <v>526</v>
       </c>
       <c r="I18" s="3">
@@ -2998,7 +3095,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3014,13 +3111,13 @@
       <c r="E19" s="3">
         <v>314</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="28">
         <v>314</v>
       </c>
       <c r="G19" s="3">
         <v>314</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="22">
         <v>302</v>
       </c>
       <c r="I19" s="3">
@@ -3033,7 +3130,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3049,13 +3146,13 @@
       <c r="E20" s="3">
         <v>344</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="28">
         <v>344</v>
       </c>
       <c r="G20" s="3">
         <v>344</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="22">
         <v>336</v>
       </c>
       <c r="I20" s="3">
@@ -3068,7 +3165,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3084,13 +3181,13 @@
       <c r="E21" s="3">
         <v>429</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="28">
         <v>428</v>
       </c>
       <c r="G21" s="3">
         <v>427</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="22">
         <v>428</v>
       </c>
       <c r="I21" s="3">
@@ -3103,7 +3200,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3119,13 +3216,13 @@
       <c r="E22" s="3">
         <v>519</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="28">
         <v>518</v>
       </c>
       <c r="G22" s="3">
         <v>517</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="22">
         <v>517</v>
       </c>
       <c r="I22" s="3">
@@ -3138,7 +3235,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3154,13 +3251,13 @@
       <c r="E23" s="6">
         <v>314</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="28">
         <v>314</v>
       </c>
       <c r="G23" s="6">
         <v>314</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="22">
         <v>302</v>
       </c>
       <c r="I23" s="6">
@@ -3173,7 +3270,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3189,13 +3286,13 @@
       <c r="E24" s="3">
         <v>353</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="28">
         <v>353</v>
       </c>
       <c r="G24" s="3">
         <v>352</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="26">
         <v>341</v>
       </c>
       <c r="I24" s="3">
@@ -3211,6 +3308,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3218,18 +3316,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="32"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="21"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3245,13 +3347,13 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -3264,7 +3366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3277,13 +3379,13 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="32">
         <v>1242</v>
       </c>
       <c r="G2" s="1">
         <v>1234</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="21">
         <v>1228</v>
       </c>
       <c r="I2" s="1">
@@ -3296,7 +3398,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3312,13 +3414,13 @@
       <c r="E3" s="1">
         <v>1242</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="32">
         <v>1234</v>
       </c>
       <c r="G3" s="1">
         <v>1228</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="21">
         <v>1148</v>
       </c>
       <c r="I3" s="1">
@@ -3331,7 +3433,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3347,13 +3449,13 @@
       <c r="E4" s="1">
         <v>1166</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="32">
         <v>1156</v>
       </c>
       <c r="G4" s="1">
         <v>1146</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="21">
         <v>1054</v>
       </c>
       <c r="I4" s="1">
@@ -3366,7 +3468,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3382,13 +3484,13 @@
       <c r="E5" s="1">
         <v>1166</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="32">
         <v>1156</v>
       </c>
       <c r="G5" s="1">
         <v>1146</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="21">
         <v>1054</v>
       </c>
       <c r="I5" s="1">
@@ -3401,7 +3503,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3417,13 +3519,13 @@
       <c r="E6" s="1">
         <v>1080</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="32">
         <v>1070</v>
       </c>
       <c r="G6" s="1">
         <v>1060</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="21">
         <v>975</v>
       </c>
       <c r="I6" s="1">
@@ -3436,7 +3538,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3452,13 +3554,13 @@
       <c r="E7" s="17">
         <v>1166</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="33">
         <v>1156</v>
       </c>
       <c r="G7" s="17">
         <v>1146</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="21">
         <v>1054</v>
       </c>
       <c r="I7" s="17">
@@ -3471,7 +3573,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3487,13 +3589,13 @@
       <c r="E8" s="17">
         <v>1080</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="33">
         <v>1070</v>
       </c>
       <c r="G8" s="17">
         <v>1060</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="21">
         <v>975</v>
       </c>
       <c r="I8" s="17">
@@ -3506,7 +3608,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3522,13 +3624,13 @@
       <c r="E9" s="1">
         <v>1074</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="32">
         <v>1065</v>
       </c>
       <c r="G9" s="1">
         <v>1054</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="21">
         <v>969</v>
       </c>
       <c r="I9" s="1">
@@ -3541,7 +3643,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3557,13 +3659,13 @@
       <c r="E10" s="1">
         <v>885</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="32">
         <v>877</v>
       </c>
       <c r="G10" s="1">
         <v>868</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="21">
         <v>804</v>
       </c>
       <c r="I10" s="1">
@@ -3576,7 +3678,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3592,13 +3694,13 @@
       <c r="E11" s="1">
         <v>878</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="32">
         <v>870</v>
       </c>
       <c r="G11" s="1">
         <v>861</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="21">
         <v>798</v>
       </c>
       <c r="I11" s="1">
@@ -3611,7 +3713,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3627,13 +3729,13 @@
       <c r="E12" s="1">
         <v>773</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="32">
         <v>766</v>
       </c>
       <c r="G12" s="1">
         <v>760</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="21">
         <v>716</v>
       </c>
       <c r="I12" s="1">
@@ -3646,7 +3748,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3662,13 +3764,13 @@
       <c r="E13" s="17">
         <v>878</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="33">
         <v>870</v>
       </c>
       <c r="G13" s="17">
         <v>861</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="21">
         <v>798</v>
       </c>
       <c r="I13" s="17">
@@ -3681,7 +3783,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3697,13 +3799,13 @@
       <c r="E14" s="17">
         <v>773</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="33">
         <v>766</v>
       </c>
       <c r="G14" s="17">
         <v>760</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="21">
         <v>716</v>
       </c>
       <c r="I14" s="17">
@@ -3716,7 +3818,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3732,13 +3834,13 @@
       <c r="E15" s="17">
         <v>767</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="33">
         <v>761</v>
       </c>
       <c r="G15" s="17">
         <v>754</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="21">
         <v>710</v>
       </c>
       <c r="I15" s="17">
@@ -3751,7 +3853,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3767,13 +3869,13 @@
       <c r="E16" s="17">
         <v>506</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="33">
         <v>505</v>
       </c>
       <c r="G16" s="17">
         <v>503</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="21">
         <v>495</v>
       </c>
       <c r="I16" s="17">
@@ -3786,7 +3888,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3802,13 +3904,13 @@
       <c r="E17" s="17">
         <v>505</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="33">
         <v>504</v>
       </c>
       <c r="G17" s="17">
         <v>502</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="21">
         <v>494</v>
       </c>
       <c r="I17" s="17">
@@ -3821,7 +3923,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3837,13 +3939,13 @@
       <c r="E18" s="17">
         <v>379</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="33">
         <v>378</v>
       </c>
       <c r="G18" s="17">
         <v>376</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="21">
         <v>363</v>
       </c>
       <c r="I18" s="17">
@@ -3856,7 +3958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3872,13 +3974,13 @@
       <c r="E19" s="1">
         <v>767</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="32">
         <v>761</v>
       </c>
       <c r="G19" s="1">
         <v>754</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="21">
         <v>710</v>
       </c>
       <c r="I19" s="1">
@@ -3891,7 +3993,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3907,13 +4009,13 @@
       <c r="E20" s="1">
         <v>503</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="32">
         <v>500</v>
       </c>
       <c r="G20" s="1">
         <v>497</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="21">
         <v>483</v>
       </c>
       <c r="I20" s="1">
@@ -3926,7 +4028,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3942,13 +4044,13 @@
       <c r="E21" s="1">
         <v>502</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="32">
         <v>500</v>
       </c>
       <c r="G21" s="1">
         <v>496</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="21">
         <v>482</v>
       </c>
       <c r="I21" s="1">
@@ -3961,7 +4063,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3977,13 +4079,13 @@
       <c r="E22" s="1">
         <v>380</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="32">
         <v>378</v>
       </c>
       <c r="G22" s="1">
         <v>376</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="21">
         <v>358</v>
       </c>
       <c r="I22" s="1">
@@ -3996,7 +4098,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4012,13 +4114,13 @@
       <c r="E23" s="1">
         <v>379</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="32">
         <v>378</v>
       </c>
       <c r="G23" s="1">
         <v>376</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="21">
         <v>360</v>
       </c>
       <c r="I23" s="1">
@@ -4031,7 +4133,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4047,13 +4149,13 @@
       <c r="E24" s="4">
         <v>379</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="34">
         <v>378</v>
       </c>
       <c r="G24" s="4">
         <v>376</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="21">
         <v>360</v>
       </c>
       <c r="I24" s="4">
@@ -4066,7 +4168,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4082,13 +4184,13 @@
       <c r="E25" s="1">
         <v>120</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="32">
         <v>120</v>
       </c>
       <c r="G25" s="1">
         <v>121</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="21">
         <v>115</v>
       </c>
       <c r="I25" s="1">
@@ -4101,7 +4203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4117,13 +4219,13 @@
       <c r="E26" s="1">
         <v>117</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="32">
         <v>117</v>
       </c>
       <c r="G26" s="1">
         <v>117</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="21">
         <v>111</v>
       </c>
       <c r="I26" s="1">
@@ -4136,7 +4238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="str">
         <f>主要设计参数!B15</f>
         <v>给水温度</v>
@@ -4149,7 +4251,7 @@
         <f>主要设计参数!D15</f>
         <v>314</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="34">
         <f>主要设计参数!E15</f>
         <v>314</v>
       </c>
@@ -4157,7 +4259,7 @@
         <f>主要设计参数!F15</f>
         <v>314</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="21">
         <f>主要设计参数!G15</f>
         <v>302</v>
       </c>
@@ -4189,14 +4291,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -4210,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>87</v>
@@ -4222,7 +4324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -4232,7 +4334,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4246,7 +4348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4260,7 +4362,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4274,7 +4376,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4288,7 +4390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>95</v>
@@ -4300,7 +4402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -4310,7 +4412,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4324,7 +4426,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4338,7 +4440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4352,7 +4454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
@@ -4362,7 +4464,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4376,7 +4478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4390,7 +4492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -4404,7 +4506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -4432,15 +4534,15 @@
       <selection activeCell="A33" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -4457,7 +4559,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -4474,7 +4576,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4491,7 +4593,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4508,7 +4610,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4525,7 +4627,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -4542,7 +4644,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4559,7 +4661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4576,7 +4678,7 @@
         <v>11.08</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4593,7 +4695,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4610,7 +4712,7 @@
         <v>37.68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4627,7 +4729,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -4652,19 +4754,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="18" style="8" customWidth="1"/>
     <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>156</v>
       </c>
@@ -4675,7 +4777,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>154</v>
       </c>
@@ -4686,7 +4788,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>152</v>
       </c>
@@ -4697,7 +4799,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -4708,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>147</v>
       </c>
@@ -4726,7 +4828,7 @@
         <v>0.76754949858575472</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>146</v>
       </c>
@@ -4744,7 +4846,7 @@
         <v>0.23245050141424531</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>145</v>
       </c>
@@ -4759,7 +4861,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>144</v>
       </c>
@@ -4770,7 +4872,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>143</v>
       </c>
@@ -4781,7 +4883,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>141</v>
       </c>
@@ -4792,7 +4894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>140</v>
       </c>
@@ -4803,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>138</v>
       </c>
@@ -4814,7 +4916,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>135</v>
       </c>
@@ -4825,7 +4927,7 @@
         <v>27.091000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>134</v>
       </c>
@@ -4833,7 +4935,7 @@
         <v>28.690999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>133</v>
       </c>
@@ -4844,7 +4946,7 @@
         <v>30.390999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>132</v>
       </c>
@@ -4852,7 +4954,7 @@
         <v>31.991</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>131</v>
       </c>
@@ -4863,7 +4965,7 @@
         <v>35.360999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>130</v>
       </c>
@@ -4871,7 +4973,7 @@
         <v>36.960999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>129</v>
       </c>
@@ -4882,7 +4984,7 @@
         <v>38.661000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>128</v>
       </c>
@@ -4890,7 +4992,7 @@
         <v>40.261000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>127</v>
       </c>
@@ -4901,7 +5003,7 @@
         <v>43.631</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
@@ -4909,7 +5011,7 @@
         <v>45.231000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>125</v>
       </c>
@@ -4920,7 +5022,7 @@
         <v>46.930999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>124</v>
       </c>
@@ -4928,7 +5030,7 @@
         <v>48.530999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>123</v>
       </c>
@@ -4939,7 +5041,7 @@
         <v>26.509</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>122</v>
       </c>
@@ -4950,31 +5052,31 @@
         <v>5.1109999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>6947/0.99/0.947/(1-3.54%)/29271</f>
         <v>0.26243835566610185</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>6947/0.995/0.947/(1-3.54%)/29271</f>
         <v>0.26111956995923707</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f>6947/0.99/0.947/29271</f>
         <v>0.25314803787552187</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f>6947/0.995/0.947/29271</f>
         <v>0.25187593718268009</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>251.7*(1-3.54%)</f>
         <v>242.78981999999999</v>
@@ -4984,7 +5086,7 @@
         <v>241.57587089999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>241.72300000000001</v>
       </c>
@@ -4992,7 +5094,7 @@
         <v>241.72300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f>1-0.0354</f>
         <v>0.96460000000000001</v>
@@ -5001,7 +5103,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f>A35/A36/0.995</f>
         <v>251.85329508833826</v>
@@ -5011,7 +5113,7 @@
         <v>251.71613037592422</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>1-0.2264</f>
         <v>0.77360000000000007</v>
